--- a/RE/RE-03.티켓랭킹/Data/Config.xlsx
+++ b/RE/RE-03.티켓랭킹/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-03.티켓랭킹\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27CA34E-8180-4AE1-BC8A-069AA4B9CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB0A2F5-BE3B-436D-8E48-18F3FB13BEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -440,33 +440,6 @@
   </si>
   <si>
     <t>rpa.soobin@gmail.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>키워드</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모니터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 세탁기, 냉장고</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -583,12 +556,16 @@
     <t>티켓랭킹_Temp.xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>qss</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -697,22 +674,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -917,8 +880,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1264,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1323,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1332,7 +1295,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
@@ -1540,10 +1503,10 @@
         <v>113</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="62.4">
@@ -1551,7 +1514,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>71</v>
@@ -1587,7 +1550,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4"/>
     </row>
@@ -1677,12 +1640,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17.399999999999999">
-      <c r="A45" s="34" t="s">
-        <v>127</v>
-      </c>
+    <row r="45" spans="1:3">
+      <c r="A45" s="34"/>
       <c r="B45" s="35" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/RE/RE-03.티켓랭킹/Data/Config.xlsx
+++ b/RE/RE-03.티켓랭킹/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-03.티켓랭킹\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB0A2F5-BE3B-436D-8E48-18F3FB13BEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70580A71-DA3B-40B3-9EAF-A1F3C1A22C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -554,10 +554,6 @@
   </si>
   <si>
     <t>티켓랭킹_Temp.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>qss</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1642,9 +1638,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="34"/>
-      <c r="B45" s="35" t="s">
-        <v>132</v>
-      </c>
+      <c r="B45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/RE/RE-03.티켓랭킹/Data/Config.xlsx
+++ b/RE/RE-03.티켓랭킹/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-03.티켓랭킹\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70580A71-DA3B-40B3-9EAF-A1F3C1A22C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7750316B-FFB1-4E6F-BC72-19D2DA472D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -436,10 +436,6 @@
   </si>
   <si>
     <t>rpa.jian23@gmail.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rpa.soobin@gmail.com</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -536,25 +532,29 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;결과 데이터를 확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>RE-Framework 티켓랭킹</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓랭킹_Temp.xlsx</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}=날짜
 {1}=과제명 Config("과제명").ToString
-{2}=strHTML</t>
+{2}=in_list성공항목
+{3}=in_list실패항목
+{4}=strHTML</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RE-Framework 티켓랭킹</t>
+    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;결과 데이터를 확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 성공 항목 : {2}&lt;br&gt;
+&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 실패 항목 : {3} &lt;/span&gt;&lt;/p&gt; 
+{4}</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>티켓랭킹_Temp.xlsx</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1282,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1291,7 +1291,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
@@ -1470,7 +1470,7 @@
         <v>115</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>125</v>
@@ -1494,12 +1494,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="62.4">
+    <row r="28" spans="1:3" ht="93.6">
       <c r="A28" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>129</v>
@@ -1510,7 +1510,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>71</v>
@@ -1546,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4"/>
     </row>

--- a/RE/RE-03.티켓랭킹/Data/Config.xlsx
+++ b/RE/RE-03.티켓랭킹/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-03.티켓랭킹\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7750316B-FFB1-4E6F-BC72-19D2DA472D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74538C-AD4D-4D06-99BC-00C0138A6686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -555,6 +555,10 @@
 &lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 실패 항목 : {3} &lt;/span&gt;&lt;/p&gt; 
 {4}</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpa.soobin@gmail.com</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1223,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1470,7 +1474,7 @@
         <v>115</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>125</v>

--- a/RE/RE-03.티켓랭킹/Data/Config.xlsx
+++ b/RE/RE-03.티켓랭킹/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-03.티켓랭킹\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74538C-AD4D-4D06-99BC-00C0138A6686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EAB6ED-830C-41DF-999B-8522EE492AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -243,16 +243,6 @@
   </si>
   <si>
     <t>CCTo</t>
-  </si>
-  <si>
-    <t>MailBody_NoData</t>
-  </si>
-  <si>
-    <t>{0}=날짜
-{1}=과제명 dicConfig("과제명").ToString
-{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
-{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>File</t>
@@ -439,104 +429,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;RPA_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;Link : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RE-Framework 티켓랭킹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>티켓랭킹_Temp.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rpa.soobin@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MailBody_NoData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0}=날짜
+{1}=과제명 Config("과제명").ToString</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;처리할 데이터가 없습니다. 확인 부탁드립니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MailBody_Fail</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -544,7 +464,10 @@
 {1}=과제명 Config("과제명").ToString
 {2}=in_list성공항목
 {3}=in_list실패항목
-{4}=strHTML</t>
+{4}=strHTML
+{5}=intTotalCount
+{6}=intSuccessCount
+{7}=intFailCount</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -553,11 +476,63 @@
 &lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 성공 항목 : {2}&lt;br&gt;
 &lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 실패 항목 : {3} &lt;/span&gt;&lt;/p&gt; 
-{4}</t>
+&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt; 성공 항목에 대한 모든 항목이 성공적으로 추출되었습니다.&lt;/span&gt;&lt;/p&gt; 
+&lt;br&gt;&lt;br&gt; {4} &lt;br&gt;
+&lt;/span&gt;&lt;/p&gt; 
+&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{5}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{7}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>rpa.soobin@gmail.com</t>
+    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;결과 데이터를 확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 성공 항목 : {2}&lt;br&gt;
+&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 실패 항목 : {3} &lt;/span&gt;&lt;/p&gt; 
+&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt; 성공 항목 중에서 추출에 실패한 부분이 존재합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;br&gt;&lt;br&gt; {4} &lt;br&gt;
+&lt;/span&gt;&lt;/p&gt;&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{5}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{7}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1225,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1277,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1286,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1295,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
@@ -1471,13 +1446,13 @@
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999">
@@ -1489,167 +1464,178 @@
     </row>
     <row r="27" spans="1:3" ht="46.8">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="93.6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="409.6">
       <c r="A28" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="46.8">
+      <c r="A29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="409.6">
+      <c r="A30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="62.4">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6">
+      <c r="A31" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6">
-      <c r="A30" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.6">
-      <c r="A31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="15.6">
       <c r="A32" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="15.6">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="15.6">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="15.6">
       <c r="A35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="C35" s="4" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6">
-      <c r="A36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="37" t="s">
-        <v>78</v>
+      <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6">
       <c r="A37" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="37" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="15.6">
       <c r="A38" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="37" t="s">
-        <v>82</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="1:3" ht="15.6">
       <c r="A39" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6">
+      <c r="A40" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="38"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.6">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.6">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.2">
+      <c r="A44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="38"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.6">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.6">
-      <c r="A42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="31.2">
-      <c r="A43" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C8:C10"/>
@@ -1707,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4">
@@ -1723,35 +1709,35 @@
     </row>
     <row r="5" spans="1:3" ht="14.4">
       <c r="A5" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="26">
         <v>5000</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4">
       <c r="A6" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="26">
         <v>30000</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4">
       <c r="A7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="26">
         <v>120000</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4">
@@ -1777,35 +1763,35 @@
     </row>
     <row r="11" spans="1:3" ht="14.4">
       <c r="A11" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="26">
         <v>1000</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4">
       <c r="A12" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="26">
         <v>15000</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4">
       <c r="A13" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="26">
         <v>60000</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4">
@@ -1815,35 +1801,35 @@
     </row>
     <row r="15" spans="1:3" ht="14.4">
       <c r="A15" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="26">
         <v>0.6</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4">
       <c r="A16" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="26">
         <v>0.8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4">
       <c r="A17" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="26">
         <v>0.9</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4">
@@ -1856,10 +1842,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4">
@@ -1867,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -1881,7 +1867,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.4">
@@ -1892,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4">
@@ -1903,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4">
@@ -1993,7 +1979,7 @@
     <row r="36" spans="1:3" ht="14.4">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36"/>
     </row>

--- a/RE/RE-03.티켓랭킹/Data/Config.xlsx
+++ b/RE/RE-03.티켓랭킹/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-03.티켓랭킹\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EAB6ED-830C-41DF-999B-8522EE492AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2186F219-536F-4DEB-B78B-8232ED011758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,8 @@
 {4}=strHTML
 {5}=intTotalCount
 {6}=intSuccessCount
-{7}=intFailCount</t>
+{7}=intFailCount
+{8}=strMemo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -479,27 +480,27 @@
 &lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt; 성공 항목에 대한 모든 항목이 성공적으로 추출되었습니다.&lt;/span&gt;&lt;/p&gt; 
 &lt;br&gt;&lt;br&gt; {4} &lt;br&gt;
 &lt;/span&gt;&lt;/p&gt; 
-&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
+&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 600px; height: 20px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
 &lt;tbody&gt;
 &lt;tr&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;th style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;th style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;th style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;th style="width: 250px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
 &lt;/tr&gt;
 &lt;tr&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;td style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{5}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;td style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;td style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{7}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 250px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;{8}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
 &lt;/tr&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -511,27 +512,28 @@
 &lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 실패 항목 : {3} &lt;/span&gt;&lt;/p&gt; 
 &lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt; 성공 항목 중에서 추출에 실패한 부분이 존재합니다.&lt;/span&gt;&lt;/p&gt;
 &lt;br&gt;&lt;br&gt; {4} &lt;br&gt;
-&lt;/span&gt;&lt;/p&gt;&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
+&lt;/span&gt;&lt;/p&gt; 
+&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 600px; height: 20px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
 &lt;tbody&gt;
 &lt;tr&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;th style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
+&lt;th style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;th style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
+&lt;th style="width: 250px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
 &lt;/tr&gt;
 &lt;tr&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;td style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{5}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
+&lt;td style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;td style="width: 130px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
 &lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{7}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
+&lt;td style="width: 250px; height: 20px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
+&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;{8}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
 &lt;/tr&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1202,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
